--- a/DataMan/Records/static/download-template.xlsx
+++ b/DataMan/Records/static/download-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M McCown\SCS\DataMan\Records\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC331B21-23D2-4004-9952-AAF61EFAB740}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ACBF9F-8F2E-4894-BB19-C77229916848}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1104" windowWidth="12180" windowHeight="10860" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataMan Upload Details" sheetId="5" r:id="rId1"/>
@@ -2370,7 +2370,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A15:J15"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="B21:J21"/>
@@ -2388,6 +2387,7 @@
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2725,7 +2725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -7461,7 +7461,7 @@
   <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7516,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="str">
-        <f>IF(Input!B18="","",$B$2)</f>
+        <f>IF(Input!D18="","",$B$2)</f>
         <v/>
       </c>
       <c r="D2" s="15" t="s">
@@ -7559,7 +7559,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="str">
-        <f>IF(Input!B19="","",$B$3)</f>
+        <f>IF(Input!D19="","",$B$3)</f>
         <v/>
       </c>
       <c r="D3" s="18" t="s">
@@ -7602,7 +7602,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="9" t="str">
-        <f>IF(Input!B20="","",$B$4)</f>
+        <f>IF(Input!D20="","",$B$4)</f>
         <v/>
       </c>
       <c r="D4" s="18" t="s">
@@ -7642,7 +7642,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="9" t="str">
-        <f>IF(Input!B21="","",$B$5)</f>
+        <f>IF(Input!D21="","",$B$5)</f>
         <v/>
       </c>
       <c r="D5" s="18" t="s">
@@ -7685,7 +7685,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(Input!B22="","",$B$6)</f>
+        <f>IF(Input!D22="","",$B$6)</f>
         <v/>
       </c>
       <c r="D6" s="18" t="s">
@@ -7726,7 +7726,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(Input!B23="","",$B$7)</f>
+        <f>IF(Input!D23="","",$B$7)</f>
         <v/>
       </c>
       <c r="D7" s="18" t="s">
@@ -7766,7 +7766,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(Input!B24="","",$B$8)</f>
+        <f>IF(Input!D24="","",$B$8)</f>
         <v/>
       </c>
       <c r="D8" s="18" t="s">
@@ -7806,7 +7806,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(Input!B25="","",$B$9)</f>
+        <f>IF(Input!D25="","",$B$9)</f>
         <v/>
       </c>
       <c r="D9" s="18" t="s">
@@ -7850,7 +7850,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(Input!B26="","",$B$10)</f>
+        <f>IF(Input!D26="","",$B$10)</f>
         <v/>
       </c>
       <c r="D10" s="18" t="s">
@@ -7893,7 +7893,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(Input!B27="","",$B$11)</f>
+        <f>IF(Input!D27="","",$B$11)</f>
         <v/>
       </c>
       <c r="D11" s="18" t="s">
@@ -7933,7 +7933,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(Input!B28="","",$B$12)</f>
+        <f>IF(Input!D28="","",$B$12)</f>
         <v/>
       </c>
       <c r="D12" s="18" t="s">
@@ -7973,7 +7973,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(Input!B29="","",$B$13)</f>
+        <f>IF(Input!D29="","",$B$13)</f>
         <v/>
       </c>
       <c r="D13" s="18" t="s">
@@ -8016,7 +8016,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(Input!B30="","",$B$14)</f>
+        <f>IF(Input!D30="","",$B$14)</f>
         <v/>
       </c>
       <c r="D14" s="18" t="s">
@@ -8059,7 +8059,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(Input!B31="","",$B$15)</f>
+        <f>IF(Input!D31="","",$B$15)</f>
         <v/>
       </c>
       <c r="D15" s="18" t="s">
@@ -8102,7 +8102,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(Input!B32="","",$B$16)</f>
+        <f>IF(Input!D32="","",$B$16)</f>
         <v/>
       </c>
       <c r="D16" s="18" t="s">
@@ -8145,7 +8145,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(Input!B33="","",$B$17)</f>
+        <f>IF(Input!D33="","",$B$17)</f>
         <v/>
       </c>
       <c r="D17" s="18" t="s">
@@ -8185,7 +8185,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(Input!B34="","",$B$18)</f>
+        <f>IF(Input!D34="","",$B$18)</f>
         <v/>
       </c>
       <c r="D18" s="18" t="s">
@@ -8225,7 +8225,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(Input!B35="","",$B$19)</f>
+        <f>IF(Input!D35="","",$B$19)</f>
         <v/>
       </c>
       <c r="D19" s="18" t="s">
@@ -8265,7 +8265,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(Input!B36="","",$B$20)</f>
+        <f>IF(Input!D36="","",$B$20)</f>
         <v/>
       </c>
       <c r="D20" s="18" t="s">
@@ -8305,7 +8305,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(Input!B37="","",$B$21)</f>
+        <f>IF(Input!D37="","",$B$21)</f>
         <v/>
       </c>
       <c r="D21" s="18" t="s">
@@ -8345,7 +8345,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(Input!B38="","",$B$22)</f>
+        <f>IF(Input!D38="","",$B$22)</f>
         <v/>
       </c>
       <c r="D22" s="18" t="s">
@@ -8385,7 +8385,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(Input!B39="","",$B$23)</f>
+        <f>IF(Input!D39="","",$B$23)</f>
         <v/>
       </c>
       <c r="D23" s="18" t="s">
@@ -8425,7 +8425,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(Input!B40="","",$B$24)</f>
+        <f>IF(Input!D40="","",$B$24)</f>
         <v/>
       </c>
       <c r="D24" s="18" t="s">
@@ -8465,7 +8465,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(Input!B41="","",$B$25)</f>
+        <f>IF(Input!D41="","",$B$25)</f>
         <v/>
       </c>
       <c r="D25" s="18" t="s">
@@ -8505,7 +8505,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(Input!B42="","",$B$26)</f>
+        <f>IF(Input!D42="","",$B$26)</f>
         <v/>
       </c>
       <c r="D26" s="18" t="s">
@@ -8545,7 +8545,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(Input!B43="","",$B$27)</f>
+        <f>IF(Input!D43="","",$B$27)</f>
         <v/>
       </c>
       <c r="D27" s="18" t="s">
@@ -8585,7 +8585,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(Input!B44="","",$B$28)</f>
+        <f>IF(Input!D44="","",$B$28)</f>
         <v/>
       </c>
       <c r="D28" s="18" t="s">
@@ -8626,7 +8626,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(Input!B45="","",$B$29)</f>
+        <f>IF(Input!D45="","",$B$29)</f>
         <v/>
       </c>
       <c r="D29" s="18" t="s">
@@ -8666,7 +8666,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(Input!B46="","",$B$30)</f>
+        <f>IF(Input!D46="","",$B$30)</f>
         <v/>
       </c>
       <c r="D30" s="18" t="s">
@@ -8706,7 +8706,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(Input!B47="","",$B$31)</f>
+        <f>IF(Input!D47="","",$B$31)</f>
         <v/>
       </c>
       <c r="D31" s="18" t="s">
@@ -9554,7 +9554,7 @@
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9583,7 +9583,10 @@
         <v>40</v>
       </c>
       <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
+      <c r="C2" s="146" t="str">
+        <f>IF(Input!C2="","",Input!C2)</f>
+        <v/>
+      </c>
       <c r="D2" s="146"/>
       <c r="E2" s="146"/>
       <c r="F2" s="146"/>
